--- a/Experiment Output/Jan/Format/LIME_XAI_Metrics_Experiments Formatted cf v1-0 270124.xlsx
+++ b/Experiment Output/Jan/Format/LIME_XAI_Metrics_Experiments Formatted cf v1-0 270124.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU_D\Dissertation\Dissertation_PreWork\Experiment Output\Jan\Format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\T_UD\Dissertation\PreWork_Repo\Dissertation_PreWork\Experiment Output\Jan\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290B7F96-EC06-4FA0-9E64-4C6F5C66D882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C7456-B5A7-4646-ACC1-A84C79694E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="150" windowWidth="24240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43080" yWindow="-4815" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LIME" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -45,7 +45,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -196,12 +196,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,20 +507,20 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -560,7 +560,7 @@
         <v>754.96</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -580,7 +580,7 @@
         <v>766.21352195739746</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -600,7 +600,7 @@
         <v>726.49384927749634</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -620,7 +620,7 @@
         <v>749.67545628547668</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -640,7 +640,7 @@
         <v>740.31803226470947</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -660,7 +660,7 @@
         <v>724.97836995124817</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -680,7 +680,7 @@
         <v>733.20174694061279</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -700,7 +700,7 @@
         <v>754.25896573066711</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -720,7 +720,7 @@
         <v>744.94282698631287</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -740,7 +740,7 @@
         <v>730.44809412956238</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="4">
         <v>11</v>
       </c>
@@ -760,7 +760,7 @@
         <v>732.48014283180237</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="4">
         <v>12</v>
       </c>
@@ -780,7 +780,7 @@
         <v>731.88213062286377</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="4">
         <v>13</v>
       </c>
@@ -800,7 +800,7 @@
         <v>742.27777099609375</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="4">
         <v>14</v>
       </c>
@@ -820,7 +820,7 @@
         <v>728.84822273254395</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="4">
         <v>15</v>
       </c>
@@ -840,7 +840,7 @@
         <v>728.72477054595947</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="4">
         <v>16</v>
       </c>
@@ -860,7 +860,7 @@
         <v>727.6583366394043</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="4">
         <v>17</v>
       </c>
@@ -880,7 +880,7 @@
         <v>730.82815456390381</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="4">
         <v>18</v>
       </c>
@@ -900,7 +900,7 @@
         <v>739.91218328475952</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="4">
         <v>19</v>
       </c>
@@ -920,7 +920,7 @@
         <v>745.10960507392883</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="5">
         <v>20</v>
       </c>
